--- a/src/ExcelsiorClosedXml.Tests/Tests.ConditionalStyling.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Tests.ConditionalStyling.verified.xlsx
@@ -162,23 +162,23 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -484,13 +484,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.996339" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.424911" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.567768" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="9.424911" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="16.282054" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="21.996339" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="17.424911" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.567768" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.424911" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
